--- a/pred_ohlcv/54_21/2020-01-26 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 AMO ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>18799801.44989999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>19549722.51989999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>18181070.79589999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>24681244.93989999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>26092275.47489999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>24859235.94989999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>23338020.50389999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>22503341.80989999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>23236311.3549</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>21782902.0079</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>20990602.1259</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>22037174.8789</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>22905756.6219</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>21520153.3739</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>20431201.80889999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>19240541.09489999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>20253210.79889999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>19121880.42189999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>17643043.78789999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>18613334.67989999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>17854937.8479</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>19206638.0469</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>17956646.9969</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>16799889.3329</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>18261774.44289999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>17020259.1549</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>19393104.8189</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>18117686.4819</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>18151589.53089999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>16889774.40189999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>17605792.42189999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>17605792.42189999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>18626937.88789999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>17283713.45189999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>18220101.29389999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7288716.715400011</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-6420134.972400011</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-7513508.318400011</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-13246052.04440001</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-12419849.11340001</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-13483373.39140001</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-12623267.41040001</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-14280562.42920001</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-13589971.69620001</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-14899293.08320001</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-14013759.81520001</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-14924720.37020001</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-14157847.77520001</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-13433353.99220001</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-13179081.12020001</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-14293459.97220001</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-12797671.81320001</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-13751011.18020001</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-12331504.88220001</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-13530641.35820001</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-14280562.42820001</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-12911910.70420001</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-11967047.09920001</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-13367379.87220001</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-14244437.37720001</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-15774128.58620002</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-14574992.11020002</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-15969071.12120002</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>22559753.65017911</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 AMO ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>18799801.44989999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>19549722.51989999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>18181070.79589999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>23338020.50389999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>22905756.6219</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>21520153.3739</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>20431201.80889999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>17643043.78789999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>18613334.67989999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>17854937.8479</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>19206638.0469</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>17956646.9969</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>16799889.3329</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>18261774.44289999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>16889774.40189999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>17605792.42189999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>18220101.29389999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>14762024.97229999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-12419849.11340001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-12623267.41040001</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-14280562.42920001</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-13589971.69620001</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-14899293.08320001</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-14013759.81520001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-14924720.37020001</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-14157847.77520001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-13433353.99220001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-14556208.60620001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-13179081.12020001</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-14293459.97220001</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-12797671.81320001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-13751011.18020001</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-12331504.88220001</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-13657777.79420001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-13827293.04120001</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-13530641.35820001</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-14280562.42820001</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-12911910.70420001</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-11967047.09920001</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-11967047.09920001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-13369601.87220001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-13367379.87220001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-14244437.37720001</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-14244437.37720001</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-15774128.58620002</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-14574992.11020002</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-15969071.12120002</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>31270165.77829998</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>30486341.65929998</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
